--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-6753</v>
+        <v>-6737</v>
       </c>
       <c r="K2" t="n">
-        <v>-225.1</v>
+        <v>-224.6</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-1729</v>
+        <v>-1713</v>
       </c>
       <c r="K3" t="n">
-        <v>-57.6</v>
+        <v>-57.1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-421</v>
+        <v>-405</v>
       </c>
       <c r="K4" t="n">
-        <v>-14</v>
+        <v>-13.5</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-848</v>
+        <v>-832</v>
       </c>
       <c r="K5" t="n">
-        <v>-28.3</v>
+        <v>-27.7</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-459</v>
+        <v>-443</v>
       </c>
       <c r="K6" t="n">
-        <v>-15.3</v>
+        <v>-14.8</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-512</v>
+        <v>-496</v>
       </c>
       <c r="K8" t="n">
-        <v>-17.1</v>
+        <v>-16.5</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-1554</v>
+        <v>-1538</v>
       </c>
       <c r="K9" t="n">
-        <v>-51.8</v>
+        <v>-51.3</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-1410</v>
+        <v>-1394</v>
       </c>
       <c r="K10" t="n">
-        <v>-47</v>
+        <v>-46.5</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-455</v>
+        <v>-439</v>
       </c>
       <c r="K11" t="n">
-        <v>-15.2</v>
+        <v>-14.6</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-413</v>
+        <v>-397</v>
       </c>
       <c r="K12" t="n">
-        <v>-13.8</v>
+        <v>-13.2</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-413</v>
+        <v>-397</v>
       </c>
       <c r="K13" t="n">
-        <v>-13.8</v>
+        <v>-13.2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-347</v>
+        <v>-331</v>
       </c>
       <c r="K14" t="n">
-        <v>-11.6</v>
+        <v>-11</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-298</v>
+        <v>-282</v>
       </c>
       <c r="K15" t="n">
-        <v>-9.9</v>
+        <v>-9.4</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-371</v>
+        <v>-355</v>
       </c>
       <c r="K16" t="n">
-        <v>-12.4</v>
+        <v>-11.8</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-290</v>
+        <v>-274</v>
       </c>
       <c r="K17" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-390</v>
+        <v>-374</v>
       </c>
       <c r="K18" t="n">
-        <v>-13</v>
+        <v>-12.5</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-390</v>
+        <v>-374</v>
       </c>
       <c r="K19" t="n">
-        <v>-13</v>
+        <v>-12.5</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-86</v>
+        <v>-70</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.9</v>
+        <v>-2.3</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-482</v>
+        <v>-466</v>
       </c>
       <c r="K21" t="n">
-        <v>-16.1</v>
+        <v>-15.5</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-512</v>
+        <v>-496</v>
       </c>
       <c r="K22" t="n">
-        <v>-17.1</v>
+        <v>-16.5</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-1064</v>
+        <v>-1048</v>
       </c>
       <c r="K23" t="n">
-        <v>-35.5</v>
+        <v>-34.9</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-565</v>
+        <v>-549</v>
       </c>
       <c r="K24" t="n">
-        <v>-18.8</v>
+        <v>-18.3</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-1069</v>
+        <v>-1053</v>
       </c>
       <c r="K25" t="n">
-        <v>-35.6</v>
+        <v>-35.1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-913</v>
+        <v>-897</v>
       </c>
       <c r="K26" t="n">
-        <v>-30.4</v>
+        <v>-29.9</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-1068</v>
+        <v>-1052</v>
       </c>
       <c r="K27" t="n">
-        <v>-35.6</v>
+        <v>-35.1</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-318</v>
+        <v>-302</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.6</v>
+        <v>-10.1</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-881</v>
+        <v>-865</v>
       </c>
       <c r="K29" t="n">
-        <v>-29.4</v>
+        <v>-28.8</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-881</v>
+        <v>-865</v>
       </c>
       <c r="K30" t="n">
-        <v>-29.4</v>
+        <v>-28.8</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-881</v>
+        <v>-865</v>
       </c>
       <c r="K31" t="n">
-        <v>-29.4</v>
+        <v>-28.8</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-881</v>
+        <v>-865</v>
       </c>
       <c r="K32" t="n">
-        <v>-29.4</v>
+        <v>-28.8</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-809</v>
+        <v>-793</v>
       </c>
       <c r="K33" t="n">
-        <v>-27</v>
+        <v>-26.4</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-873</v>
+        <v>-857</v>
       </c>
       <c r="K34" t="n">
-        <v>-29.1</v>
+        <v>-28.6</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-550</v>
+        <v>-534</v>
       </c>
       <c r="K35" t="n">
-        <v>-18.3</v>
+        <v>-17.8</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-423</v>
+        <v>-407</v>
       </c>
       <c r="K36" t="n">
-        <v>-14.1</v>
+        <v>-13.6</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-780</v>
+        <v>-764</v>
       </c>
       <c r="K37" t="n">
-        <v>-26</v>
+        <v>-25.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-780</v>
+        <v>-764</v>
       </c>
       <c r="K38" t="n">
-        <v>-26</v>
+        <v>-25.5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-609</v>
+        <v>-593</v>
       </c>
       <c r="K39" t="n">
-        <v>-20.3</v>
+        <v>-19.8</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2829,10 +2829,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-718</v>
+        <v>-702</v>
       </c>
       <c r="K40" t="n">
-        <v>-23.9</v>
+        <v>-23.4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-718</v>
+        <v>-702</v>
       </c>
       <c r="K41" t="n">
-        <v>-23.9</v>
+        <v>-23.4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-648</v>
+        <v>-632</v>
       </c>
       <c r="K42" t="n">
-        <v>-21.6</v>
+        <v>-21.1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>-489</v>
+        <v>-473</v>
       </c>
       <c r="K43" t="n">
-        <v>-16.3</v>
+        <v>-15.8</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3069,10 +3069,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>-381</v>
+        <v>-365</v>
       </c>
       <c r="K44" t="n">
-        <v>-12.7</v>
+        <v>-12.2</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>-847</v>
+        <v>-831</v>
       </c>
       <c r="K45" t="n">
-        <v>-28.2</v>
+        <v>-27.7</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>-971</v>
+        <v>-955</v>
       </c>
       <c r="K46" t="n">
-        <v>-32.4</v>
+        <v>-31.8</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>-1319</v>
+        <v>-1303</v>
       </c>
       <c r="K47" t="n">
-        <v>-44</v>
+        <v>-43.4</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>-1275</v>
+        <v>-1259</v>
       </c>
       <c r="K48" t="n">
-        <v>-42.5</v>
+        <v>-42</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>-1214</v>
+        <v>-1198</v>
       </c>
       <c r="K49" t="n">
-        <v>-40.5</v>
+        <v>-39.9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>-1214</v>
+        <v>-1198</v>
       </c>
       <c r="K50" t="n">
-        <v>-40.5</v>
+        <v>-39.9</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>-1183</v>
+        <v>-1167</v>
       </c>
       <c r="K51" t="n">
-        <v>-39.4</v>
+        <v>-38.9</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>-1131</v>
+        <v>-1115</v>
       </c>
       <c r="K52" t="n">
-        <v>-37.7</v>
+        <v>-37.2</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>-788</v>
+        <v>-772</v>
       </c>
       <c r="K53" t="n">
-        <v>-26.3</v>
+        <v>-25.7</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>-846</v>
+        <v>-830</v>
       </c>
       <c r="K54" t="n">
-        <v>-28.2</v>
+        <v>-27.7</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3731,10 +3731,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>-846</v>
+        <v>-830</v>
       </c>
       <c r="K55" t="n">
-        <v>-28.2</v>
+        <v>-27.7</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>-669</v>
+        <v>-653</v>
       </c>
       <c r="K56" t="n">
-        <v>-22.3</v>
+        <v>-21.8</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3851,10 +3851,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>-1486</v>
+        <v>-1470</v>
       </c>
       <c r="K57" t="n">
-        <v>-49.5</v>
+        <v>-49</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>-750</v>
+        <v>-734</v>
       </c>
       <c r="K58" t="n">
-        <v>-25</v>
+        <v>-24.5</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>-750</v>
+        <v>-734</v>
       </c>
       <c r="K59" t="n">
-        <v>-25</v>
+        <v>-24.5</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,11 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Storage Location</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Destruição</t>
         </is>
       </c>
@@ -547,10 +552,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-6737</v>
+        <v>-6734</v>
       </c>
       <c r="K2" t="n">
-        <v>-224.6</v>
+        <v>-224.5</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -569,6 +574,7 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -607,10 +613,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-1713</v>
+        <v>-1710</v>
       </c>
       <c r="K3" t="n">
-        <v>-57.1</v>
+        <v>-57</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -629,6 +635,7 @@
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -667,10 +674,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-405</v>
+        <v>-402</v>
       </c>
       <c r="K4" t="n">
-        <v>-13.5</v>
+        <v>-13.4</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -689,6 +696,7 @@
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -727,10 +735,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-832</v>
+        <v>-829</v>
       </c>
       <c r="K5" t="n">
-        <v>-27.7</v>
+        <v>-27.6</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -749,6 +757,7 @@
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -787,10 +796,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-443</v>
+        <v>-440</v>
       </c>
       <c r="K6" t="n">
-        <v>-14.8</v>
+        <v>-14.7</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -809,6 +818,7 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -847,10 +857,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -870,7 +880,8 @@
       <c r="O7" t="n">
         <v>301</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -913,10 +924,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-496</v>
+        <v>-493</v>
       </c>
       <c r="K8" t="n">
-        <v>-16.5</v>
+        <v>-16.4</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -926,7 +937,12 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -965,10 +981,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-1538</v>
+        <v>-1535</v>
       </c>
       <c r="K9" t="n">
-        <v>-51.3</v>
+        <v>-51.2</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -987,6 +1003,7 @@
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1025,10 +1042,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-1394</v>
+        <v>-1391</v>
       </c>
       <c r="K10" t="n">
-        <v>-46.5</v>
+        <v>-46.4</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1047,6 +1064,7 @@
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1085,10 +1103,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-439</v>
+        <v>-436</v>
       </c>
       <c r="K11" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1107,6 +1125,7 @@
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1145,10 +1164,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-397</v>
+        <v>-394</v>
       </c>
       <c r="K12" t="n">
-        <v>-13.2</v>
+        <v>-13.1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1167,6 +1186,7 @@
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1205,10 +1225,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-397</v>
+        <v>-394</v>
       </c>
       <c r="K13" t="n">
-        <v>-13.2</v>
+        <v>-13.1</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1227,6 +1247,7 @@
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1265,10 +1286,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-331</v>
+        <v>-328</v>
       </c>
       <c r="K14" t="n">
-        <v>-11</v>
+        <v>-10.9</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1287,6 +1308,7 @@
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1325,10 +1347,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-282</v>
+        <v>-279</v>
       </c>
       <c r="K15" t="n">
-        <v>-9.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1347,6 +1369,7 @@
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1385,10 +1408,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-355</v>
+        <v>-352</v>
       </c>
       <c r="K16" t="n">
-        <v>-11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1407,6 +1430,7 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1445,10 +1469,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-274</v>
+        <v>-271</v>
       </c>
       <c r="K17" t="n">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1467,6 +1491,7 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1505,10 +1530,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-374</v>
+        <v>-371</v>
       </c>
       <c r="K18" t="n">
-        <v>-12.5</v>
+        <v>-12.4</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1527,6 +1552,7 @@
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1565,10 +1591,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-374</v>
+        <v>-371</v>
       </c>
       <c r="K19" t="n">
-        <v>-12.5</v>
+        <v>-12.4</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1587,6 +1613,7 @@
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1625,10 +1652,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-70</v>
+        <v>-67</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1646,7 +1673,8 @@
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -1689,10 +1717,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-466</v>
+        <v>-463</v>
       </c>
       <c r="K21" t="n">
-        <v>-15.5</v>
+        <v>-15.4</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1711,6 +1739,7 @@
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1749,10 +1778,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-496</v>
+        <v>-493</v>
       </c>
       <c r="K22" t="n">
-        <v>-16.5</v>
+        <v>-16.4</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1771,6 +1800,7 @@
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1809,10 +1839,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-1048</v>
+        <v>-1045</v>
       </c>
       <c r="K23" t="n">
-        <v>-34.9</v>
+        <v>-34.8</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1831,6 +1861,7 @@
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1869,10 +1900,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-549</v>
+        <v>-546</v>
       </c>
       <c r="K24" t="n">
-        <v>-18.3</v>
+        <v>-18.2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1891,6 +1922,7 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1929,10 +1961,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-1053</v>
+        <v>-1050</v>
       </c>
       <c r="K25" t="n">
-        <v>-35.1</v>
+        <v>-35</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1951,6 +1983,7 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1989,10 +2022,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-897</v>
+        <v>-894</v>
       </c>
       <c r="K26" t="n">
-        <v>-29.9</v>
+        <v>-29.8</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2011,6 +2044,7 @@
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2049,10 +2083,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-1052</v>
+        <v>-1049</v>
       </c>
       <c r="K27" t="n">
-        <v>-35.1</v>
+        <v>-35</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2071,6 +2105,7 @@
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2109,10 +2144,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-302</v>
+        <v>-299</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2131,6 +2166,7 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2169,10 +2205,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-865</v>
+        <v>-862</v>
       </c>
       <c r="K29" t="n">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2191,6 +2227,7 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2229,10 +2266,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-865</v>
+        <v>-862</v>
       </c>
       <c r="K30" t="n">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2251,6 +2288,7 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2289,10 +2327,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-865</v>
+        <v>-862</v>
       </c>
       <c r="K31" t="n">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2311,6 +2349,7 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2349,10 +2388,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-865</v>
+        <v>-862</v>
       </c>
       <c r="K32" t="n">
-        <v>-28.8</v>
+        <v>-28.7</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2371,6 +2410,7 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2409,10 +2449,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-793</v>
+        <v>-790</v>
       </c>
       <c r="K33" t="n">
-        <v>-26.4</v>
+        <v>-26.3</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2431,6 +2471,7 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2469,10 +2510,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-857</v>
+        <v>-854</v>
       </c>
       <c r="K34" t="n">
-        <v>-28.6</v>
+        <v>-28.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2491,6 +2532,7 @@
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2529,10 +2571,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-534</v>
+        <v>-531</v>
       </c>
       <c r="K35" t="n">
-        <v>-17.8</v>
+        <v>-17.7</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2551,6 +2593,7 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2589,10 +2632,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-407</v>
+        <v>-404</v>
       </c>
       <c r="K36" t="n">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2611,6 +2654,7 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2649,10 +2693,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-764</v>
+        <v>-761</v>
       </c>
       <c r="K37" t="n">
-        <v>-25.5</v>
+        <v>-25.4</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2671,6 +2715,7 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2709,10 +2754,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-764</v>
+        <v>-761</v>
       </c>
       <c r="K38" t="n">
-        <v>-25.5</v>
+        <v>-25.4</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2731,6 +2776,7 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2769,10 +2815,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-593</v>
+        <v>-590</v>
       </c>
       <c r="K39" t="n">
-        <v>-19.8</v>
+        <v>-19.7</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2791,6 +2837,7 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2829,10 +2876,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-702</v>
+        <v>-699</v>
       </c>
       <c r="K40" t="n">
-        <v>-23.4</v>
+        <v>-23.3</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2851,6 +2898,7 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2889,10 +2937,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-702</v>
+        <v>-699</v>
       </c>
       <c r="K41" t="n">
-        <v>-23.4</v>
+        <v>-23.3</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2911,6 +2959,7 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2949,10 +2998,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-632</v>
+        <v>-629</v>
       </c>
       <c r="K42" t="n">
-        <v>-21.1</v>
+        <v>-21</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2971,6 +3020,7 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3009,10 +3059,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>-473</v>
+        <v>-470</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.8</v>
+        <v>-15.7</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3031,6 +3081,7 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3069,10 +3120,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>-365</v>
+        <v>-362</v>
       </c>
       <c r="K44" t="n">
-        <v>-12.2</v>
+        <v>-12.1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3091,6 +3142,7 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3129,10 +3181,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>-831</v>
+        <v>-828</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.7</v>
+        <v>-27.6</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3151,6 +3203,7 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3189,10 +3242,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>-955</v>
+        <v>-952</v>
       </c>
       <c r="K46" t="n">
-        <v>-31.8</v>
+        <v>-31.7</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3211,6 +3264,7 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3249,10 +3303,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>-1303</v>
+        <v>-1300</v>
       </c>
       <c r="K47" t="n">
-        <v>-43.4</v>
+        <v>-43.3</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3271,6 +3325,7 @@
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3309,10 +3364,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>-1259</v>
+        <v>-1256</v>
       </c>
       <c r="K48" t="n">
-        <v>-42</v>
+        <v>-41.9</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3331,6 +3386,7 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3369,10 +3425,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>-1198</v>
+        <v>-1195</v>
       </c>
       <c r="K49" t="n">
-        <v>-39.9</v>
+        <v>-39.8</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3393,6 +3449,7 @@
         <v>10</v>
       </c>
       <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3431,10 +3488,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>-1198</v>
+        <v>-1195</v>
       </c>
       <c r="K50" t="n">
-        <v>-39.9</v>
+        <v>-39.8</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3453,6 +3510,7 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3491,10 +3549,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>-1167</v>
+        <v>-1164</v>
       </c>
       <c r="K51" t="n">
-        <v>-38.9</v>
+        <v>-38.8</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3513,6 +3571,7 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3551,10 +3610,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>-1115</v>
+        <v>-1112</v>
       </c>
       <c r="K52" t="n">
-        <v>-37.2</v>
+        <v>-37.1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3573,6 +3632,7 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3611,10 +3671,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>-772</v>
+        <v>-769</v>
       </c>
       <c r="K53" t="n">
-        <v>-25.7</v>
+        <v>-25.6</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3633,6 +3693,7 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3671,10 +3732,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>-830</v>
+        <v>-827</v>
       </c>
       <c r="K54" t="n">
-        <v>-27.7</v>
+        <v>-27.6</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3693,6 +3754,7 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3731,10 +3793,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>-830</v>
+        <v>-827</v>
       </c>
       <c r="K55" t="n">
-        <v>-27.7</v>
+        <v>-27.6</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3753,6 +3815,7 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3791,10 +3854,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>-653</v>
+        <v>-650</v>
       </c>
       <c r="K56" t="n">
-        <v>-21.8</v>
+        <v>-21.7</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3813,6 +3876,7 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3851,10 +3915,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>-1470</v>
+        <v>-1467</v>
       </c>
       <c r="K57" t="n">
-        <v>-49</v>
+        <v>-48.9</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3873,6 +3937,7 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3911,10 +3976,10 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>-734</v>
+        <v>-731</v>
       </c>
       <c r="K58" t="n">
-        <v>-24.5</v>
+        <v>-24.4</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3933,6 +3998,7 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3971,10 +4037,10 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>-734</v>
+        <v>-731</v>
       </c>
       <c r="K59" t="n">
-        <v>-24.5</v>
+        <v>-24.4</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3984,7 +4050,12 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -634,7 +634,11 @@
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -695,7 +699,11 @@
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -756,7 +764,11 @@
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1002,7 +1014,11 @@
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1063,7 +1079,11 @@
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1307,7 +1327,11 @@
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1490,7 +1514,11 @@
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1612,7 +1640,11 @@
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1673,7 +1705,11 @@
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
@@ -1738,7 +1774,11 @@
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1799,7 +1839,11 @@
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1860,7 +1904,11 @@
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1921,7 +1969,11 @@
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1982,7 +2034,11 @@
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2043,7 +2099,11 @@
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2104,7 +2164,11 @@
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2165,7 +2229,11 @@
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2226,7 +2294,11 @@
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2287,7 +2359,11 @@
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2348,7 +2424,11 @@
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2409,7 +2489,11 @@
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -2470,7 +2554,11 @@
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -2531,7 +2619,11 @@
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -2592,7 +2684,11 @@
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2653,7 +2749,11 @@
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2714,7 +2814,11 @@
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2775,7 +2879,11 @@
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2836,7 +2944,11 @@
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3141,7 +3253,11 @@
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -3202,7 +3318,11 @@
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -3448,7 +3568,11 @@
       <c r="O49" t="n">
         <v>10</v>
       </c>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3692,7 +3816,11 @@
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -3753,7 +3881,11 @@
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -3814,7 +3946,11 @@
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -3875,7 +4011,11 @@
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -3936,7 +4076,11 @@
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>1001.0</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -3997,7 +4141,11 @@
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,25 +491,30 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Write off</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Plant</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BSK</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Blocked</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Storage Location</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Destruição</t>
         </is>
@@ -562,19 +567,22 @@
           <t>2040-10-02</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M2" t="n">
+        <v>332</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -623,23 +631,26 @@
           <t>2026-12-31</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M3" t="n">
+        <v>671</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -688,23 +699,26 @@
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -753,23 +767,26 @@
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M5" t="n">
+        <v>50</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -818,19 +835,22 @@
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M6" t="n">
+        <v>274</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -879,21 +899,24 @@
           <t>2022-01-20</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M7" t="n">
+        <v>301</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>301</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -946,15 +969,20 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1003,23 +1031,26 @@
           <t>2026-07-09</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M9" t="n">
+        <v>20</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1068,23 +1099,26 @@
           <t>2026-02-15</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M10" t="n">
+        <v>160</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1133,19 +1167,22 @@
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M11" t="n">
+        <v>470</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1194,19 +1231,22 @@
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M12" t="n">
+        <v>428</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1255,19 +1295,22 @@
           <t>2023-05-25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M13" t="n">
+        <v>38</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1316,23 +1359,26 @@
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="n">
+        <v>332</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1381,19 +1427,22 @@
           <t>2023-01-30</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M15" t="n">
+        <v>229</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1442,19 +1491,22 @@
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M16" t="n">
+        <v>200</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1503,23 +1555,26 @@
           <t>2023-01-22</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="n">
+        <v>36</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1568,19 +1623,22 @@
           <t>2023-05-02</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="n">
+        <v>150</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1629,23 +1687,26 @@
           <t>2023-05-02</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="n">
+        <v>158</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1694,23 +1755,26 @@
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M20" t="n">
+        <v>12</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -1763,23 +1827,26 @@
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M21" t="n">
+        <v>17</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1828,23 +1895,26 @@
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M22" t="n">
+        <v>43</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1893,23 +1963,26 @@
           <t>2025-03-06</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M23" t="n">
+        <v>317</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1958,23 +2031,26 @@
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M24" t="n">
+        <v>81</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2023,23 +2099,26 @@
           <t>2025-03-11</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M25" t="n">
+        <v>150</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2088,23 +2167,26 @@
           <t>2024-10-06</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M26" t="n">
+        <v>35</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2153,23 +2235,26 @@
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M27" t="n">
+        <v>25</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2218,23 +2303,26 @@
           <t>2023-02-19</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M28" t="n">
+        <v>35</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2283,23 +2371,26 @@
           <t>2024-09-04</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M29" t="n">
+        <v>13</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2348,23 +2439,26 @@
           <t>2024-09-04</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M30" t="n">
+        <v>30</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2413,23 +2507,26 @@
           <t>2024-09-04</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M31" t="n">
+        <v>30</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2478,23 +2575,26 @@
           <t>2024-09-04</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M32" t="n">
+        <v>80</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2543,23 +2643,26 @@
           <t>2024-06-24</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M33" t="n">
+        <v>135</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2608,23 +2711,26 @@
           <t>2024-08-27</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M34" t="n">
+        <v>123</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2673,23 +2779,26 @@
           <t>2023-10-09</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M35" t="n">
+        <v>50</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2738,23 +2847,26 @@
           <t>2023-06-04</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M36" t="n">
+        <v>95</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2803,23 +2915,26 @@
           <t>2024-05-26</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M37" t="n">
+        <v>60</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2868,23 +2983,26 @@
           <t>2024-05-26</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M38" t="n">
+        <v>300</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2933,23 +3051,26 @@
           <t>2023-12-07</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M39" t="n">
+        <v>98</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2998,19 +3119,22 @@
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M40" t="n">
+        <v>1</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3059,19 +3183,22 @@
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M41" t="n">
+        <v>27</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3120,19 +3247,22 @@
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M42" t="n">
+        <v>8</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3181,19 +3311,22 @@
           <t>2023-08-09</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M43" t="n">
+        <v>120</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3242,23 +3375,26 @@
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M44" t="n">
+        <v>86</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3307,23 +3443,26 @@
           <t>2024-08-01</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M45" t="n">
+        <v>226</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3372,19 +3511,22 @@
           <t>2024-12-03</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M46" t="n">
+        <v>200</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3433,19 +3575,22 @@
           <t>2025-11-16</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M47" t="n">
+        <v>396</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3494,19 +3639,22 @@
           <t>2025-10-03</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M48" t="n">
+        <v>274</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3555,25 +3703,28 @@
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M49" t="n">
+        <v>181</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
         <v>10</v>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3622,19 +3773,22 @@
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M50" t="n">
+        <v>191</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3683,19 +3837,22 @@
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M51" t="n">
+        <v>30</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3744,19 +3901,22 @@
           <t>2025-05-12</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M52" t="n">
+        <v>212</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3805,23 +3965,26 @@
           <t>2024-06-03</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M53" t="n">
+        <v>53</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3870,23 +4033,26 @@
           <t>2024-07-31</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M54" t="n">
+        <v>59</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3935,23 +4101,26 @@
           <t>2024-07-31</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M55" t="n">
+        <v>54</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4000,23 +4169,26 @@
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M56" t="n">
+        <v>24</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4065,23 +4237,26 @@
           <t>2026-05-02</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M57" t="n">
+        <v>1287</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
         <is>
           <t>1001.0</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4130,23 +4305,26 @@
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>BR01</t>
-        </is>
+      <c r="M58" t="n">
+        <v>12</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
+          <t>BR01</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4195,15 +4373,20 @@
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
